--- a/Информация о проходах/Вахитова Полина Александровна.xlsx
+++ b/Информация о проходах/Вахитова Полина Александровна.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +439,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-06-03 07:39:27</t>
+          <t>2024-05-12 20:42:18</t>
         </is>
       </c>
     </row>
@@ -471,17 +471,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-06-03 20:00:36</t>
+          <t>2024-05-13 07:31:03</t>
         </is>
       </c>
     </row>
@@ -512,6 +512,1094 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-05-13 09:02:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-05-13 09:04:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-05-13 17:09:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-05-14 07:38:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-05-14 17:03:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-05-14 17:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-05-15 07:41:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-05-15 17:07:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-05-16 07:38:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-05-16 17:07:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-05-17 07:41:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-05-17 17:01:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-05-20 07:37:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-05-20 16:59:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-05-21 07:41:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-05-21 17:01:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-05-22 07:49:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-05-22 17:02:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-05-23 07:43:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024-05-23 17:04:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024-05-24 07:40:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024-05-24 17:01:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024-05-27 07:45:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024-05-27 17:02:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:42:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2024-05-28 17:00:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2024-05-29 07:44:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2024-05-29 17:01:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2024-05-30 07:43:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2024-05-30 17:04:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2024-05-31 07:49:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2024-05-31 17:03:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2024-06-03 07:39:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2024-06-03 20:00:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Вахитова Полина Александровна</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Ведущий технолог</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>2024-06-04 07:40:26</t>
         </is>

--- a/Информация о проходах/Вахитова Полина Александровна.xlsx
+++ b/Информация о проходах/Вахитова Полина Александровна.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +439,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-12 20:42:18</t>
+          <t>2024-06-03 07:39:27</t>
         </is>
       </c>
     </row>
@@ -471,17 +471,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-13 07:31:03</t>
+          <t>2024-06-03 20:00:36</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-05-13 09:02:49</t>
+          <t>2024-06-04 07:40:26</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-05-13 09:04:12</t>
+          <t>2024-06-04 20:01:05</t>
         </is>
       </c>
     </row>
@@ -567,17 +567,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-05-13 17:09:20</t>
+          <t>2024-06-05 07:45:02</t>
         </is>
       </c>
     </row>
@@ -599,17 +599,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-05-14 07:38:31</t>
+          <t>2024-06-05 17:00:06</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-05-14 17:03:14</t>
+          <t>2024-06-06 07:40:26</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-05-14 17:37:24</t>
+          <t>2024-06-06 20:00:22</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-05-15 07:41:45</t>
+          <t>2024-06-07 07:41:36</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-05-15 17:07:22</t>
+          <t>2024-06-07 19:59:50</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-05-16 07:38:42</t>
+          <t>2024-06-08 07:31:59</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-05-16 17:07:41</t>
+          <t>2024-06-08 16:59:56</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-05-17 07:41:26</t>
+          <t>2024-06-10 07:41:11</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-05-17 17:01:02</t>
+          <t>2024-06-10 19:59:36</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-05-20 07:37:55</t>
+          <t>2024-06-11 07:47:44</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-05-20 16:59:23</t>
+          <t>2024-06-11 16:01:39</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-05-21 07:41:35</t>
+          <t>2024-06-12 07:39:37</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-05-21 17:01:20</t>
+          <t>2024-06-12 17:01:02</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-05-22 07:49:31</t>
+          <t>2024-06-13 07:42:04</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024-05-22 17:02:58</t>
+          <t>2024-06-13 17:00:30</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024-05-23 07:43:27</t>
+          <t>2024-06-14 07:42:43</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024-05-23 17:04:36</t>
+          <t>2024-06-14 17:14:50</t>
         </is>
       </c>
     </row>
@@ -1143,17 +1143,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024-05-24 07:40:53</t>
+          <t>2024-06-14 17:14:52</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024-05-24 17:01:38</t>
+          <t>2024-06-14 17:14:57</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024-05-27 07:45:25</t>
+          <t>2024-06-17 07:26:35</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024-05-27 17:02:54</t>
+          <t>2024-06-17 19:00:00</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2024-05-28 07:42:50</t>
+          <t>2024-06-18 07:37:37</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2024-05-28 17:00:32</t>
+          <t>2024-06-18 20:00:02</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2024-05-29 07:44:03</t>
+          <t>2024-06-19 07:24:26</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2024-05-29 17:01:04</t>
+          <t>2024-06-19 20:02:54</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2024-05-30 07:43:15</t>
+          <t>2024-06-20 07:53:32</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2024-05-30 17:04:27</t>
+          <t>2024-06-20 19:58:01</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2024-05-31 07:49:14</t>
+          <t>2024-06-21 07:42:43</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2024-05-31 17:03:10</t>
+          <t>2024-06-21 18:00:18</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2024-06-03 07:39:27</t>
+          <t>2024-06-22 07:50:57</t>
         </is>
       </c>
     </row>
@@ -1569,39 +1569,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2024-06-03 20:00:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Вахитова Полина Александровна</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Ведущий технолог</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Производственный отдел</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2024-06-04 07:40:26</t>
+          <t>2024-06-22 13:12:33</t>
         </is>
       </c>
     </row>
